--- a/Resultados/RESULTADOS_2.xlsx
+++ b/Resultados/RESULTADOS_2.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -573,67 +573,67 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.42</v>
+        <v>2.09</v>
       </c>
       <c r="E2" t="n">
-        <v>41.3</v>
+        <v>47.78</v>
       </c>
       <c r="F2" t="n">
-        <v>37.36</v>
+        <v>42.5</v>
       </c>
       <c r="G2" t="n">
-        <v>11.92</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I2" t="n">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="J2" t="n">
-        <v>71.52</v>
+        <v>107.41</v>
       </c>
       <c r="K2" t="n">
-        <v>32.27</v>
+        <v>41.65</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="N2" t="n">
-        <v>8.25</v>
+        <v>14.77</v>
       </c>
       <c r="O2" t="n">
-        <v>9054.6</v>
+        <v>13481.73</v>
       </c>
       <c r="P2" t="n">
-        <v>257.39</v>
+        <v>395.7</v>
       </c>
       <c r="Q2" t="n">
         <v>1194.85</v>
       </c>
       <c r="R2" t="n">
-        <v>402.73</v>
+        <v>577.88</v>
       </c>
       <c r="S2" t="n">
         <v>100.53</v>
       </c>
       <c r="T2" t="n">
-        <v>150134.02</v>
+        <v>237201.15</v>
       </c>
       <c r="U2" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="V2" t="n">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="W2" t="n">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="X2" t="n">
-        <v>8.85</v>
+        <v>13.99</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -655,67 +655,67 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="E3" t="n">
-        <v>34.59</v>
+        <v>34.12</v>
       </c>
       <c r="F3" t="n">
-        <v>31.9</v>
+        <v>31.35</v>
       </c>
       <c r="G3" t="n">
-        <v>25.52</v>
+        <v>29.39</v>
       </c>
       <c r="H3" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J3" t="n">
-        <v>72.7</v>
+        <v>110.1</v>
       </c>
       <c r="K3" t="n">
-        <v>32.27</v>
+        <v>41.65</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>3.11</v>
       </c>
       <c r="M3" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="N3" t="n">
-        <v>8.43</v>
+        <v>15.34</v>
       </c>
       <c r="O3" t="n">
-        <v>9200.25</v>
+        <v>13812.67</v>
       </c>
       <c r="P3" t="n">
-        <v>203.71</v>
+        <v>271.05</v>
       </c>
       <c r="Q3" t="n">
         <v>1194.85</v>
       </c>
       <c r="R3" t="n">
-        <v>217.24</v>
+        <v>198.28</v>
       </c>
       <c r="S3" t="n">
         <v>100.53</v>
       </c>
       <c r="T3" t="n">
-        <v>57954.97</v>
+        <v>48531.76</v>
       </c>
       <c r="U3" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="V3" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="W3" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="X3" t="n">
-        <v>12.25</v>
+        <v>16.84</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -737,67 +737,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="E4" t="n">
-        <v>32.99</v>
+        <v>32.45</v>
       </c>
       <c r="F4" t="n">
-        <v>30.58</v>
+        <v>30.02</v>
       </c>
       <c r="G4" t="n">
-        <v>40.77</v>
+        <v>52.97</v>
       </c>
       <c r="H4" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="I4" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>73.88</v>
+        <v>112.8</v>
       </c>
       <c r="K4" t="n">
-        <v>32.27</v>
+        <v>41.65</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5.22</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" t="n">
-        <v>8.609999999999999</v>
+        <v>15.92</v>
       </c>
       <c r="O4" t="n">
-        <v>9346.23</v>
+        <v>14145.35</v>
       </c>
       <c r="P4" t="n">
-        <v>178.45</v>
+        <v>237.15</v>
       </c>
       <c r="Q4" t="n">
         <v>1194.85</v>
       </c>
       <c r="R4" t="n">
-        <v>171.94</v>
+        <v>153.28</v>
       </c>
       <c r="S4" t="n">
         <v>100.53</v>
       </c>
       <c r="T4" t="n">
-        <v>35455.1</v>
+        <v>26181.78</v>
       </c>
       <c r="U4" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="V4" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="W4" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="X4" t="n">
-        <v>14.33</v>
+        <v>18.35</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -819,67 +819,67 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="E5" t="n">
-        <v>32.89</v>
+        <v>32.17</v>
       </c>
       <c r="F5" t="n">
-        <v>30.4</v>
+        <v>29.56</v>
       </c>
       <c r="G5" t="n">
-        <v>43.42</v>
+        <v>68.23</v>
       </c>
       <c r="H5" t="n">
-        <v>0.93</v>
+        <v>1.12</v>
       </c>
       <c r="I5" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>75.06999999999999</v>
+        <v>115.51</v>
       </c>
       <c r="K5" t="n">
-        <v>32.27</v>
+        <v>41.65</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>7.33</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>8.800000000000001</v>
+        <v>16.52</v>
       </c>
       <c r="O5" t="n">
-        <v>9492.549999999999</v>
+        <v>14479.91</v>
       </c>
       <c r="P5" t="n">
-        <v>176.15</v>
+        <v>218.98</v>
       </c>
       <c r="Q5" t="n">
         <v>1194.85</v>
       </c>
       <c r="R5" t="n">
-        <v>164.46</v>
+        <v>136.72</v>
       </c>
       <c r="S5" t="n">
         <v>100.53</v>
       </c>
       <c r="T5" t="n">
-        <v>31731</v>
+        <v>17941.98</v>
       </c>
       <c r="U5" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="V5" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="W5" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="X5" t="n">
-        <v>16.22</v>
+        <v>19.41</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -901,67 +901,67 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="E6" t="n">
-        <v>32.81</v>
+        <v>32.09</v>
       </c>
       <c r="F6" t="n">
-        <v>30.32</v>
+        <v>29.5</v>
       </c>
       <c r="G6" t="n">
-        <v>44.38</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
       <c r="I6" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>76.26000000000001</v>
+        <v>118.24</v>
       </c>
       <c r="K6" t="n">
-        <v>32.27</v>
+        <v>41.65</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>9.44</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>8.99</v>
+        <v>17.14</v>
       </c>
       <c r="O6" t="n">
-        <v>9639.200000000001</v>
+        <v>14816.38</v>
       </c>
       <c r="P6" t="n">
-        <v>177.96</v>
+        <v>222.64</v>
       </c>
       <c r="Q6" t="n">
         <v>1194.85</v>
       </c>
       <c r="R6" t="n">
-        <v>161.95</v>
+        <v>134.35</v>
       </c>
       <c r="S6" t="n">
         <v>100.53</v>
       </c>
       <c r="T6" t="n">
-        <v>30482.95</v>
+        <v>16763.74</v>
       </c>
       <c r="U6" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="V6" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="W6" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="X6" t="n">
-        <v>18.04</v>
+        <v>20.41</v>
       </c>
       <c r="Y6" t="n">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -983,67 +983,67 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="E7" t="n">
-        <v>32.81</v>
+        <v>32.09</v>
       </c>
       <c r="F7" t="n">
-        <v>30.32</v>
+        <v>29.5</v>
       </c>
       <c r="G7" t="n">
-        <v>44.38</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="I7" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>77.45</v>
+        <v>120.98</v>
       </c>
       <c r="K7" t="n">
-        <v>32.27</v>
+        <v>41.65</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>11.56</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>9.18</v>
+        <v>17.77</v>
       </c>
       <c r="O7" t="n">
-        <v>9786.190000000001</v>
+        <v>15154.81</v>
       </c>
       <c r="P7" t="n">
-        <v>180.52</v>
+        <v>227.48</v>
       </c>
       <c r="Q7" t="n">
         <v>1194.85</v>
       </c>
       <c r="R7" t="n">
-        <v>161.95</v>
+        <v>134.35</v>
       </c>
       <c r="S7" t="n">
         <v>100.53</v>
       </c>
       <c r="T7" t="n">
-        <v>30482.95</v>
+        <v>16763.74</v>
       </c>
       <c r="U7" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="V7" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="W7" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="X7" t="n">
-        <v>19.87</v>
+        <v>21.4</v>
       </c>
       <c r="Y7" t="n">
         <v>1</v>

--- a/Resultados/RESULTADOS_2.xlsx
+++ b/Resultados/RESULTADOS_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="E2" t="n">
-        <v>41.3</v>
+        <v>42.13</v>
       </c>
       <c r="F2" t="n">
         <v>37.36</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="E3" t="n">
-        <v>34.59</v>
+        <v>34.91</v>
       </c>
       <c r="F3" t="n">
         <v>31.9</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="E4" t="n">
-        <v>32.99</v>
+        <v>33.12</v>
       </c>
       <c r="F4" t="n">
         <v>30.58</v>
@@ -967,88 +967,6 @@
         <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCLUIDO	</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E7" t="n">
-        <v>32.81</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30.32</v>
-      </c>
-      <c r="G7" t="n">
-        <v>44.38</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41</v>
-      </c>
-      <c r="J7" t="n">
-        <v>77.45</v>
-      </c>
-      <c r="K7" t="n">
-        <v>32.27</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="O7" t="n">
-        <v>9786.190000000001</v>
-      </c>
-      <c r="P7" t="n">
-        <v>180.52</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1194.85</v>
-      </c>
-      <c r="R7" t="n">
-        <v>161.95</v>
-      </c>
-      <c r="S7" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>30482.95</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="X7" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
         <v>10</v>
       </c>
     </row>
